--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -25,7 +25,7 @@
     <sheet name="Fluorescence" sheetId="6" r:id="rId11"/>
     <sheet name="Fluorescence_norm" sheetId="7" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>Lae(47,4780833, 8,365)</t>
-  </si>
-  <si>
-    <t>D:\TRuStee\Deliverables\D3.3\S2\subset_0_of_S2B_MSIL2A_20190318T110759_N0211_R137_T29TQE_20190318T140412_resampled.nc</t>
   </si>
   <si>
     <t>sun_zenith</t>
@@ -803,15 +800,9 @@
     <t>MSI_wl</t>
   </si>
   <si>
-    <t>S2_test</t>
-  </si>
-  <si>
     <t>[PREFERRED] path to file with 18 high resolution (0,01nm) MODTRAN transmittance functions (Alternative to providing Esun and Esky)</t>
   </si>
   <si>
-    <t>run1</t>
-  </si>
-  <si>
     <t>..\output</t>
   </si>
   <si>
@@ -831,6 +822,15 @@
   </si>
   <si>
     <t>..\measured\synthetic\wl.dat</t>
+  </si>
+  <si>
+    <t>..\measured\Sentinel-2_sample.nc</t>
+  </si>
+  <si>
+    <t>sample_synthetic</t>
+  </si>
+  <si>
+    <t>sample_S2</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1535,7 @@
         <v>0.4</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>71</v>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,10 +1853,10 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1873,24 +1873,24 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
         <v>213</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1898,7 +1898,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -1909,7 +1909,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -1920,7 +1920,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -1934,7 +1934,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1948,13 +1948,13 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1966,12 +1966,12 @@
         <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1985,10 +1985,10 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2002,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2082,21 +2082,21 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2124,7 +2124,7 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2226,44 +2226,44 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2318,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>179</v>
@@ -2340,7 +2340,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -2351,7 +2351,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -2362,7 +2362,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -2376,7 +2376,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -2390,7 +2390,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -2408,7 +2408,7 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>165</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>168</v>
@@ -2438,7 +2438,7 @@
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>169</v>
@@ -2452,7 +2452,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>170</v>
@@ -2466,7 +2466,7 @@
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2537,21 +2537,21 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,25 +2650,25 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
         <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H1" t="s">
         <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3139,31 +3139,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3211,18 +3211,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
         <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3246,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRuStee\Deliverables\D3.3\demonstrator\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9762A22-87A5-4392-A3BF-A9DB0431F976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12816" windowHeight="2736" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="252">
   <si>
     <t>wlmin</t>
   </si>
@@ -708,9 +709,6 @@
   </si>
   <si>
     <t>2018-06-27 11:00:00</t>
-  </si>
-  <si>
-    <t>HyPlant2018</t>
   </si>
   <si>
     <t>Information about sensor and wavelength range used for fitting</t>
@@ -815,28 +813,34 @@
     <t>..\input\radiationdata\FLEX-S3_std.atm</t>
   </si>
   <si>
-    <t>..\measured\synthetic\synthetic_original.dat</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\synthetic_validation.dat</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\wl.dat</t>
-  </si>
-  <si>
     <t>..\measured\Sentinel-2_sample.nc</t>
   </si>
   <si>
-    <t>sample_synthetic</t>
-  </si>
-  <si>
     <t>sample_S2</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>D:\validation\Hafiz\hafiz_spec.csv</t>
+  </si>
+  <si>
+    <t>D:\validation\Hafiz\hafiz_wl.csv</t>
+  </si>
+  <si>
+    <t>D:\validation\Hafiz\hafiz_val.csv</t>
+  </si>
+  <si>
+    <t>hafiz</t>
+  </si>
+  <si>
+    <t>D:\validation\Hafiz\hafiz_day.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
@@ -941,7 +945,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1032,6 +1036,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1067,6 +1088,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1242,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1762,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1811,11 +1849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,7 +1891,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
         <v>208</v>
@@ -1873,7 +1911,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -1887,7 +1925,7 @@
         <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
         <v>213</v>
@@ -1898,7 +1936,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -1909,7 +1947,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -1920,7 +1958,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -1934,7 +1972,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1948,13 +1986,13 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1966,12 +2004,12 @@
         <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1985,10 +2023,10 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2002,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2016,7 +2054,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2030,7 +2068,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2082,7 +2120,7 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2090,7 +2128,7 @@
         <v>214</v>
       </c>
       <c r="B24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>197</v>
@@ -2118,13 +2156,13 @@
         <v>93</v>
       </c>
       <c r="B27" s="10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2132,7 +2170,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="10">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>98</v>
@@ -2146,7 +2184,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="10">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
@@ -2213,7 +2251,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="12">
-        <v>50.874699999999997</v>
+        <v>46.017000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2221,7 +2259,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="12">
-        <v>6.4484570000000003</v>
+        <v>11.032999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2276,7 +2314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2356,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>179</v>
@@ -2340,7 +2378,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -2351,7 +2389,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -2362,7 +2400,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -2376,7 +2414,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -2390,7 +2428,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -2408,7 +2446,7 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2627,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2650,25 +2688,25 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
         <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
         <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3102,11 +3140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3213,13 +3251,16 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
       <c r="D8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>220</v>
@@ -3232,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9762A22-87A5-4392-A3BF-A9DB0431F976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70926E6-A0FB-4821-8900-B60BED2E355B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -831,10 +831,10 @@
     <t>D:\validation\Hafiz\hafiz_val.csv</t>
   </si>
   <si>
-    <t>hafiz</t>
-  </si>
-  <si>
     <t>D:\validation\Hafiz\hafiz_day.csv</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,7 +1947,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10">
-        <v>-999</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
@@ -3252,7 +3252,7 @@
         <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
         <v>220</v>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAEF3F-00AD-4638-8BB8-D1958C88ECE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E24D3-E79D-448D-8EBE-00BC32E90EDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
     <sheet name="Filenames" sheetId="9" r:id="rId2"/>
-    <sheet name="Satellite" sheetId="10" r:id="rId3"/>
-    <sheet name="Bands" sheetId="11" r:id="rId4"/>
-    <sheet name="TimeSeries" sheetId="12" r:id="rId5"/>
+    <sheet name="TimeSeries" sheetId="12" r:id="rId3"/>
+    <sheet name="Satellite" sheetId="10" r:id="rId4"/>
+    <sheet name="Bands" sheetId="11" r:id="rId5"/>
     <sheet name="TS_out" sheetId="13" r:id="rId6"/>
     <sheet name="Output" sheetId="2" r:id="rId7"/>
     <sheet name="Rmeas" sheetId="3" r:id="rId8"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="254">
   <si>
     <t>wlmin</t>
   </si>
@@ -819,19 +819,28 @@
     <t>sample_S2</t>
   </si>
   <si>
+    <t>D:\George\0_Vredepel\2019-07-03\for_retrieval\20190703_vre_ts.csv</t>
+  </si>
+  <si>
+    <t>Vredepeel (51.540788, 5.860210)</t>
+  </si>
+  <si>
+    <t>Lelystad (52.54, 5.55)</t>
+  </si>
+  <si>
     <t>ASD</t>
   </si>
   <si>
     <t>synthetic</t>
   </si>
   <si>
-    <t>..\measured\synthetic\synthetic_original.dat</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\wl.dat</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\synthetic_validation.dat</t>
+    <t>../measured/synthetic/ASD/synthetic.csv</t>
+  </si>
+  <si>
+    <t>../measured/synthetic/ASD/synthetic_wl.csv</t>
+  </si>
+  <si>
+    <t>../measured/synthetic/ASD/synthetic_val.csv</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1561,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -1850,7 +1859,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,7 +1897,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
         <v>208</v>
@@ -1908,7 +1917,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -1922,7 +1931,7 @@
         <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
         <v>213</v>
@@ -1944,7 +1953,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -2020,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
         <v>232</v>
@@ -2248,7 +2257,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="12">
-        <v>46.017000000000003</v>
+        <v>51.540787999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2256,7 +2268,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="12">
-        <v>11.032999999999999</v>
+        <v>5.8602100000000004</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2292,7 +2307,7 @@
         <v>196</v>
       </c>
       <c r="B39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>197</v>
@@ -2311,11 +2326,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2661,12 +2809,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,136 +3281,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E24D3-E79D-448D-8EBE-00BC32E90EDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D5EC-723E-4C3A-BA6E-F04CC4CAE256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="252">
   <si>
     <t>wlmin</t>
   </si>
@@ -816,12 +816,6 @@
     <t>..\measured\Sentinel-2_sample.nc</t>
   </si>
   <si>
-    <t>sample_S2</t>
-  </si>
-  <si>
-    <t>D:\George\0_Vredepel\2019-07-03\for_retrieval\20190703_vre_ts.csv</t>
-  </si>
-  <si>
     <t>Vredepeel (51.540788, 5.860210)</t>
   </si>
   <si>
@@ -831,16 +825,16 @@
     <t>ASD</t>
   </si>
   <si>
+    <t>../measured/synthetic/ASD/synthetic.csv</t>
+  </si>
+  <si>
+    <t>../measured/synthetic/ASD/synthetic_wl.csv</t>
+  </si>
+  <si>
+    <t>../measured/synthetic/ASD/synthetic_val.csv</t>
+  </si>
+  <si>
     <t>synthetic</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic_wl.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic_val.csv</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1891,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>208</v>
@@ -1917,7 +1911,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -1931,7 +1925,7 @@
         <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>213</v>
@@ -1953,7 +1947,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -2029,7 +2023,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
         <v>232</v>
@@ -2260,7 +2254,7 @@
         <v>51.540787999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2271,7 +2265,7 @@
         <v>5.8602100000000004</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2330,7 +2324,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,9 +2431,6 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
       <c r="D8" t="s">
         <v>220</v>
       </c>
@@ -2462,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2534,7 +2525,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -2813,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19D5EC-723E-4C3A-BA6E-F04CC4CAE256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA93C53-55C2-48E0-83BD-74814FEDF650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA93C53-55C2-48E0-83BD-74814FEDF650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD34BA-3108-4927-9EF0-DD9174CB4D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="260">
   <si>
     <t>wlmin</t>
   </si>
@@ -546,9 +546,6 @@
     <t>solar azimuth angle</t>
   </si>
   <si>
-    <t>band name</t>
-  </si>
-  <si>
     <t>observation azimuth angle</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
     <t>pix_lon</t>
   </si>
   <si>
-    <t>(8, 3)</t>
-  </si>
-  <si>
     <t>image_path</t>
   </si>
   <si>
@@ -597,9 +591,6 @@
     <t>uneven (odd) integer or 0</t>
   </si>
   <si>
-    <t>Lae(47,4780833, 8,365)</t>
-  </si>
-  <si>
     <t>sun_zenith</t>
   </si>
   <si>
@@ -610,9 +601,6 @@
   </si>
   <si>
     <t>view_azimuth_mean</t>
-  </si>
-  <si>
-    <t>Maj (39,9415, -5,77336111)</t>
   </si>
   <si>
     <t>tz</t>
@@ -836,6 +824,124 @@
   <si>
     <t>synthetic</t>
   </si>
+  <si>
+    <t>synthetic_sat</t>
+  </si>
+  <si>
+    <t>quality_flag_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] band name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave emtpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if none</t>
+    </r>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name: substituted by `tts` if absent</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name: substituted by `tto` if absent</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] band name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required if K ~= 0</t>
+    </r>
+  </si>
+  <si>
+    <t>qulity flag</t>
+  </si>
+  <si>
+    <t>quality_flag_is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flag == quality_flag_is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fitting will be done for this pixel</t>
+    </r>
+  </si>
+  <si>
+    <t>quality_flag_lt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flag &lt; quality_flag_ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fitting will be done for this pixel</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -844,7 +950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +974,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1573,7 +1687,7 @@
         <v>0.4</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>71</v>
@@ -1852,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,10 +2005,10 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1903,7 +2017,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1911,24 +2025,24 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,7 +2050,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -1947,7 +2061,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -1958,7 +2072,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -1972,7 +2086,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1986,13 +2100,13 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2004,12 +2118,12 @@
         <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2023,10 +2137,10 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2040,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2054,7 +2168,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2068,7 +2182,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2120,21 +2234,21 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2162,7 +2276,7 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2215,7 +2329,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2226,7 +2340,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2237,7 +2351,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2254,7 +2368,7 @@
         <v>51.540787999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,49 +2379,49 @@
         <v>5.8602100000000004</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B39" s="10">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2357,31 +2471,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2397,7 +2511,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2413,7 +2527,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2429,18 +2543,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2451,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,13 +2603,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2506,7 +2620,7 @@
         <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2514,7 +2628,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -2525,7 +2639,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -2536,7 +2650,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -2550,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -2564,7 +2678,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -2582,7 +2696,7 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2590,7 +2704,7 @@
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2598,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2612,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2626,13 +2740,13 @@
         <v>164</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2640,158 +2754,181 @@
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="B21" s="11">
+        <v>39.941499999999998</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="11">
-        <v>39.941499999999998</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>-5.7733611099999997</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>0.05</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="D26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="10">
-        <v>44.8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B29" s="10">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="10">
-        <v>19.7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="10">
-        <v>223</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" s="10">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
-        <v>184</v>
+      <c r="D31" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2942,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2818,36 +2955,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
         <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,7 +3427,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3310,7 +3447,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD34BA-3108-4927-9EF0-DD9174CB4D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0DCB9-9895-463B-A059-96EF3A4A79B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="269">
   <si>
     <t>wlmin</t>
   </si>
@@ -564,9 +564,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>path to file with image .nc</t>
-  </si>
-  <si>
     <t>your_names</t>
   </si>
   <si>
@@ -583,9 +580,6 @@
   </si>
   <si>
     <t>i_srf</t>
-  </si>
-  <si>
-    <t>S3A_OLCI, SLSTR, MSI if you excluded some bands configure 'bands' sheet</t>
   </si>
   <si>
     <t>uneven (odd) integer or 0</t>
@@ -810,51 +804,10 @@
     <t>Lelystad (52.54, 5.55)</t>
   </si>
   <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic_wl.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/ASD/synthetic_val.csv</t>
-  </si>
-  <si>
-    <t>synthetic</t>
-  </si>
-  <si>
     <t>synthetic_sat</t>
   </si>
   <si>
     <t>quality_flag_name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[OPTIONAL] band name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>leave emtpy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if none</t>
-    </r>
   </si>
   <si>
     <t>[OPTIONAL] band name: substituted by `tts` if absent</t>
@@ -940,6 +893,126 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> fitting will be done for this pixel</t>
+    </r>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic.csv</t>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic_wl.csv</t>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic_val.csv</t>
+  </si>
+  <si>
+    <t>lut_path</t>
+  </si>
+  <si>
+    <t>.mat</t>
+  </si>
+  <si>
+    <t>lut_input</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] lut input parameters: number of rows == number of rows in LUT, header with names corresponding to Input</t>
+  </si>
+  <si>
+    <t>MSI, OLCI, SLSTR, Synergy if you excluded some bands configure 'bands' sheet</t>
+  </si>
+  <si>
+    <t>Synergy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> look-up table will be used instead of numerical optimization</t>
+    </r>
+  </si>
+  <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>NL (52.5283, 5.6035)</t>
+  </si>
+  <si>
+    <t>.nc</t>
+  </si>
+  <si>
+    <t>path to file with image: NetCDF format</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] band name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave emtpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if none (quality_scene_classification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> look-up table will be used instead of numerical optimization (..\lut\MSI_1000\lut.mat)</t>
     </r>
   </si>
 </sst>
@@ -987,7 +1060,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,11 +1073,81 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1014,14 +1157,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,11 +1191,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,7 +1565,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,367 +1601,367 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="25">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="25">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="25">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="25">
         <v>0.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="25">
         <v>0.3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="25">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="25">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="25">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="25">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>55</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="28">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="28">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="28">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="28">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="28">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="28">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="28">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="28">
         <v>0.02</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="28">
         <v>0.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="28">
         <v>0.02</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="28">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="28">
         <v>0.6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="28">
         <v>1.2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="28">
         <v>0.4</v>
       </c>
-      <c r="G11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="28">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="28">
         <v>1.4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="28">
         <v>3.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="28">
         <v>0.75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="30">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="30">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="30">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="30">
         <v>-0.35</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="30">
         <v>-1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="30">
         <v>0.6</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="30">
         <v>-0.15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="30">
         <v>-1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="30">
         <v>0.6</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="34">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1809,7 +1976,7 @@
       <c r="E16">
         <v>40</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>1000000000</v>
       </c>
       <c r="G16" t="s">
@@ -1817,7 +1984,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="34"/>
       <c r="B17" t="s">
         <v>88</v>
       </c>
@@ -1830,7 +1997,7 @@
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>1000000000</v>
       </c>
       <c r="G17" t="s">
@@ -1838,7 +2005,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="34"/>
       <c r="B18" t="s">
         <v>89</v>
       </c>
@@ -1851,7 +2018,7 @@
       <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>1000000000</v>
       </c>
       <c r="G18" t="s">
@@ -1859,7 +2026,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="34"/>
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -1872,7 +2039,7 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>1000000000</v>
       </c>
       <c r="G19" t="s">
@@ -1964,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,19 +2172,18 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2025,24 +2191,24 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2050,7 +2216,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -2058,300 +2224,302 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
         <v>118</v>
       </c>
-      <c r="D11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B17" s="8">
         <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10">
-        <v>400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2400</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B23" s="8">
         <v>-999</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="8">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="10">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
+      <c r="B29" s="8">
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="8">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B32" s="8">
         <v>0.05</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="D31" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="D33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>197</v>
+      <c r="A34" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2361,71 +2529,93 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="12">
-        <v>51.540787999999999</v>
-      </c>
-      <c r="D35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="B37" s="10">
+        <v>52.54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="12">
-        <v>5.8602100000000004</v>
-      </c>
-      <c r="D36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B38" s="10">
+        <v>5.55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="10">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2438,7 +2628,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,32 +2660,32 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D4" t="s">
         <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2511,7 +2701,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2527,7 +2717,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2543,18 +2733,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>229</v>
+      <c r="A9" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2565,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2606,10 +2796,13 @@
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,7 +2813,7 @@
         <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2628,7 +2821,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -2636,299 +2829,326 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>239</v>
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="D9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="9">
+        <v>39.941499999999998</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-5.7733611099999997</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="11">
-        <v>39.941499999999998</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="10">
-        <v>-5.7733611099999997</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="10">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="D26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="10">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="10">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="10">
-        <v>154</v>
+      <c r="B31" s="8">
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="8">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2939,472 +3159,688 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>400.28</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="15">
-        <v>443</v>
+        <v>124</v>
+      </c>
+      <c r="G3" s="14">
+        <v>400.28</v>
       </c>
       <c r="H3" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="13">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>412.69</v>
       </c>
       <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>659</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="15">
-        <v>490</v>
+        <v>125</v>
+      </c>
+      <c r="G4" s="14">
+        <v>412.69</v>
       </c>
       <c r="H4" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>490</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="13">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>442.49</v>
       </c>
       <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>865</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="15">
-        <v>560</v>
+        <v>126</v>
+      </c>
+      <c r="G5" s="14">
+        <v>442.49</v>
       </c>
       <c r="H5" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="13">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>490.98</v>
       </c>
       <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1375</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="15">
-        <v>665</v>
+        <v>127</v>
+      </c>
+      <c r="G6" s="14">
+        <v>490.98</v>
       </c>
       <c r="H6" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>665</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="13">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>510.9</v>
       </c>
       <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1610</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="15">
-        <v>705</v>
+        <v>128</v>
+      </c>
+      <c r="G7" s="14">
+        <v>510.9</v>
       </c>
       <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>705</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="13">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>560.74</v>
       </c>
       <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>2250</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="15">
-        <v>740</v>
+        <v>129</v>
+      </c>
+      <c r="G8" s="14">
+        <v>560.74</v>
       </c>
       <c r="H8" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>740</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="13">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>620.64</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="15">
-        <v>783</v>
+        <v>130</v>
+      </c>
+      <c r="G9" s="14">
+        <v>620.64</v>
       </c>
       <c r="H9" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>783</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="13">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>665.62</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="15">
-        <v>842</v>
+        <v>131</v>
+      </c>
+      <c r="G10" s="14">
+        <v>665.62</v>
       </c>
       <c r="H10" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>842</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="13">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>674.36</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="15">
-        <v>865</v>
+        <v>132</v>
+      </c>
+      <c r="G11" s="14">
+        <v>674.36</v>
       </c>
       <c r="H11" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>865</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>681.86</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="15">
-        <v>945</v>
+        <v>133</v>
+      </c>
+      <c r="G12" s="14">
+        <v>681.86</v>
       </c>
       <c r="H12" t="s">
         <v>159</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>945</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="13">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>709.37</v>
       </c>
       <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="14">
+        <v>709.37</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="15">
+      <c r="I13" s="23">
         <v>1375</v>
       </c>
-      <c r="I13" s="15">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>754.39</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1610</v>
+        <v>135</v>
+      </c>
+      <c r="G14" s="14">
+        <v>754.39</v>
       </c>
       <c r="H14" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>1610</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="22">
         <v>761.89</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2190</v>
+        <v>136</v>
+      </c>
+      <c r="G15" s="14">
+        <v>761.89</v>
       </c>
       <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>2190</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="13">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="22">
         <v>764.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="14">
+        <v>764.4</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>768.15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="14">
+        <v>768.15</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>779.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="14">
+        <v>779.41</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>865.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="14">
+        <v>865.73</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>885.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="14">
+        <v>885.73</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>900.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="14">
+        <v>900.74</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>940.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="14">
+        <v>940.74</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>1024.67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1024.67</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="6">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -3427,27 +3863,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>199</v>
+      <c r="A5" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
